--- a/practical_works/students_mark.xlsx
+++ b/practical_works/students_mark.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="иван" sheetId="1" r:id="rId1"/>
-    <sheet name="мария" sheetId="2" r:id="rId2"/>
+    <sheet name="admin" sheetId="1" r:id="rId1"/>
+    <sheet name="иван" sheetId="2" r:id="rId2"/>
     <sheet name="витя" sheetId="3" r:id="rId3"/>
+    <sheet name="мария" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>Дата</t>
   </si>
@@ -31,6 +32,9 @@
   </si>
   <si>
     <t>2023-04-16 22:42</t>
+  </si>
+  <si>
+    <t>2023-05-14 13:39</t>
   </si>
 </sst>
 </file>
@@ -371,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,38 +389,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -424,7 +396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +415,31 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -478,4 +474,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>